--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" tabRatio="841"/>
+    <workbookView windowWidth="28800" windowHeight="12435" tabRatio="841"/>
   </bookViews>
   <sheets>
     <sheet name="BM DT 21 00" sheetId="22" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="2075">
   <si>
     <t>KẾ HOẠCH GIÁO VIÊN</t>
   </si>
@@ -6465,13 +6465,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6745,6 +6745,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -6754,14 +6761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6774,40 +6774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6826,6 +6795,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6853,13 +6829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -6882,8 +6851,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6891,6 +6869,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6961,13 +6954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6979,25 +6972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7015,7 +7002,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7027,37 +7062,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,79 +7134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7249,47 +7242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7338,6 +7290,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7346,151 +7328,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8372,8 +8365,8 @@
   </sheetPr>
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A155" sqref="A12:K155"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158:H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14084,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" s="68" customFormat="1" ht="15.75" spans="1:12">
+    <row r="158" s="68" customFormat="1" ht="110.25" spans="1:12">
       <c r="A158" s="45" t="s">
         <v>313</v>
       </c>
@@ -14106,7 +14099,9 @@
       <c r="G158" s="47">
         <v>3</v>
       </c>
-      <c r="H158" s="74"/>
+      <c r="H158" s="74" t="s">
+        <v>307</v>
+      </c>
       <c r="I158" s="87" t="s">
         <v>308</v>
       </c>
@@ -14116,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" s="68" customFormat="1" ht="15.75" spans="1:12">
+    <row r="159" s="68" customFormat="1" ht="110.25" spans="1:12">
       <c r="A159" s="45" t="s">
         <v>316</v>
       </c>
@@ -14138,7 +14133,9 @@
       <c r="G159" s="47">
         <v>1</v>
       </c>
-      <c r="H159" s="74"/>
+      <c r="H159" s="74" t="s">
+        <v>312</v>
+      </c>
       <c r="I159" s="87" t="s">
         <v>308</v>
       </c>
@@ -19451,7 +19448,7 @@
       </c>
       <c r="B17" s="3" t="str">
         <f ca="1">"Vĩnh Long, ngày "&amp;DAY(NOW())&amp;" tháng "&amp;MONTH(NOW())&amp;" năm "&amp;YEAR(NOW())</f>
-        <v>Vĩnh Long, ngày 17 tháng 4 năm 2023</v>
+        <v>Vĩnh Long, ngày 31 tháng 5 năm 2023</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12435" tabRatio="841"/>
+    <workbookView windowWidth="24225" windowHeight="12420" tabRatio="841"/>
   </bookViews>
   <sheets>
     <sheet name="BM DT 21 00" sheetId="22" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5712" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="2075">
   <si>
     <t>KẾ HOẠCH GIÁO VIÊN</t>
   </si>
@@ -6465,10 +6465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="61">
@@ -6745,13 +6745,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -6761,7 +6754,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6769,6 +6777,44 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6791,10 +6837,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6813,14 +6874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -6829,61 +6882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6954,13 +6954,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6972,31 +7032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7014,25 +7056,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7044,25 +7104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7074,67 +7116,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7242,26 +7242,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7283,9 +7283,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7305,36 +7331,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7342,7 +7342,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7360,130 +7360,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8366,7 +8366,7 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158:H159"/>
+      <selection activeCell="U159" sqref="U159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -14077,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" s="68" customFormat="1" ht="110.25" spans="1:12">
+    <row r="158" s="68" customFormat="1" ht="15.75" spans="1:12">
       <c r="A158" s="45" t="s">
         <v>313</v>
       </c>
@@ -14099,9 +14099,7 @@
       <c r="G158" s="47">
         <v>3</v>
       </c>
-      <c r="H158" s="74" t="s">
-        <v>307</v>
-      </c>
+      <c r="H158" s="74"/>
       <c r="I158" s="87" t="s">
         <v>308</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" s="68" customFormat="1" ht="110.25" spans="1:12">
+    <row r="159" s="68" customFormat="1" ht="15.75" spans="1:12">
       <c r="A159" s="45" t="s">
         <v>316</v>
       </c>
@@ -14133,9 +14131,7 @@
       <c r="G159" s="47">
         <v>1</v>
       </c>
-      <c r="H159" s="74" t="s">
-        <v>312</v>
-      </c>
+      <c r="H159" s="74"/>
       <c r="I159" s="87" t="s">
         <v>308</v>
       </c>
